--- a/kicad_v2.1/03-RAF_PCB_specification.xlsx
+++ b/kicad_v2.1/03-RAF_PCB_specification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -130,6 +130,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> (Rigid) FR－4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Special Requirement:</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1.6 mm</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -202,6 +208,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1 oz.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -225,6 +234,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">White</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -248,6 +260,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -271,6 +286,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">HASL Lead Free</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -294,6 +312,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Soldermask Cover</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -317,6 +338,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">0.20 mm</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -340,6 +364,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">0.40 mm</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -432,15 +459,9 @@
     <t xml:space="preserve">Green</t>
   </si>
   <si>
-    <t xml:space="preserve">White</t>
-  </si>
-  <si>
     <t xml:space="preserve">HASL Lead Free(RoHS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldermask Cover</t>
-  </si>
-  <si>
     <t xml:space="preserve">4 mil or 0.10 mm</t>
   </si>
   <si>
@@ -460,9 +481,6 @@
   </si>
   <si>
     <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black</t>
   </si>
   <si>
     <t xml:space="preserve">ENIG</t>
@@ -688,6 +706,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF00946C"/>
       <name val="Arial"/>
@@ -700,13 +724,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -865,7 +882,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -884,15 +901,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -984,10 +1001,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -996,19 +1009,19 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="3.31983805668016"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9109311740891"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="3.51417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.0526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.17004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.68421052631579"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1032,13 +1045,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>68.326</v>
+        <v>68.58</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>53.596</v>
+        <v>53.34</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -1047,9 +1060,11 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
@@ -1058,11 +1073,13 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
@@ -1070,11 +1087,13 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -1082,11 +1101,13 @@
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
@@ -1094,11 +1115,13 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -1106,11 +1129,13 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1118,11 +1143,13 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -1130,11 +1157,13 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -1142,11 +1171,13 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -1154,11 +1185,13 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -1166,7 +1199,7 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="10"/>
@@ -1193,7 +1226,7 @@
     <row r="16" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1225,7 +1258,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1236,277 +1268,277 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="26.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="28.3643724696356"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="16" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="15.6842105263158"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="17.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="20.3117408906883"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5951417004049"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.17004048582996"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
